--- a/biology/Botanique/Aluka/Aluka.xlsx
+++ b/biology/Botanique/Aluka/Aluka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aluka est une ancienne bibliothèque numérique collaborative en ligne relative à l'Afrique et à destination de la communauté universitaire et des chercheurs[1]. Elle a été développée à partir de 2003 et mise en ligne en février 2007. En juin 2008, elle a fusionné avec JSTOR[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aluka est une ancienne bibliothèque numérique collaborative en ligne relative à l'Afrique et à destination de la communauté universitaire et des chercheurs. Elle a été développée à partir de 2003 et mise en ligne en février 2007. En juin 2008, elle a fusionné avec JSTOR.
 « Aluka » est dérivé d’un mot zoulou signifiant « tisser ».
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aluka était axée autour de trois thématiques différentes :
 le patrimoine culturel : sites et paysages, en collaboration avec le Zamani Project (en).
-les plantes d'Afrique, via la publication d'un herbier numérique africain par le projet API (African Plants Initiative, parrainé par la fondation Andrew W. Mellon). Ce programme a numérisé et publié plus de 300 000 planches d'herbiers en 3 ans en associant 39 institutions originaires de 20 pays (d’Afrique, d’Europe et des États-Unis). En 2007, fort de son succès il a été élargi aux plantes d'Amérique du Sud avec le projet Latin American Plants Initiative, puis au monde entier et alors renommé « Global Plants Initiative » ou « GPI »[3]. En 2011, 190 institutions de 60 pays y participaient, et en 2013 plus de 300 institutions dans 75 pays sont associées, ayant contribué à mettre à disposition de tous plus de 2 millions de documents botaniques (1,8 million de spécimens d'herbier, 450 000 articles). En France, il est notamment soutenu par l'université Montpellier 2 (herbier MPU) et Tela Botanica.
+les plantes d'Afrique, via la publication d'un herbier numérique africain par le projet API (African Plants Initiative, parrainé par la fondation Andrew W. Mellon). Ce programme a numérisé et publié plus de 300 000 planches d'herbiers en 3 ans en associant 39 institutions originaires de 20 pays (d’Afrique, d’Europe et des États-Unis). En 2007, fort de son succès il a été élargi aux plantes d'Amérique du Sud avec le projet Latin American Plants Initiative, puis au monde entier et alors renommé « Global Plants Initiative » ou « GPI ». En 2011, 190 institutions de 60 pays y participaient, et en 2013 plus de 300 institutions dans 75 pays sont associées, ayant contribué à mettre à disposition de tous plus de 2 millions de documents botaniques (1,8 million de spécimens d'herbier, 450 000 articles). En France, il est notamment soutenu par l'université Montpellier 2 (herbier MPU) et Tela Botanica.
 les combats pour la liberté en Afrique australe.</t>
         </is>
       </c>
